--- a/nuno-dataset/test-solidos-03/content/results/metrics_5_8.xlsx
+++ b/nuno-dataset/test-solidos-03/content/results/metrics_5_8.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_24</t>
+          <t>model_5_8_16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8405760808067357</v>
+        <v>0.8879533401716834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2542681189602916</v>
+        <v>0.9559317036235797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6327843823881475</v>
+        <v>0.5325291032570673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4542909326293941</v>
+        <v>0.7200322929932172</v>
       </c>
       <c r="F2" t="n">
-        <v>19.22657203674316</v>
+        <v>13.51286029815674</v>
       </c>
       <c r="G2" t="n">
-        <v>73.97604370117188</v>
+        <v>3.413688182830811</v>
       </c>
       <c r="H2" t="n">
-        <v>40.6826057434082</v>
+        <v>51.48808288574219</v>
       </c>
       <c r="I2" t="n">
-        <v>58.30849456787109</v>
+        <v>26.03693580627441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_23</t>
+          <t>model_5_8_15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8411956812661003</v>
+        <v>0.8930560544056532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.254618397258506</v>
+        <v>0.9648979835492112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63720210820904</v>
+        <v>0.5793968101663465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4566182104732783</v>
+        <v>0.7501068530464702</v>
       </c>
       <c r="F3" t="n">
-        <v>19.15184593200684</v>
+        <v>12.89747142791748</v>
       </c>
       <c r="G3" t="n">
-        <v>73.94129180908203</v>
+        <v>2.719128131866455</v>
       </c>
       <c r="H3" t="n">
-        <v>40.19318389892578</v>
+        <v>46.32598876953125</v>
       </c>
       <c r="I3" t="n">
-        <v>58.05982208251953</v>
+        <v>23.24000549316406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_3</t>
+          <t>model_5_8_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.842040010401098</v>
+        <v>0.894574289023456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4192480407732289</v>
+        <v>0.9523035212361918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8498547320268965</v>
+        <v>0.9154471197541845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6412945669920207</v>
+        <v>0.9318435035941279</v>
       </c>
       <c r="F4" t="n">
-        <v>19.05002212524414</v>
+        <v>12.71437168121338</v>
       </c>
       <c r="G4" t="n">
-        <v>57.61016082763672</v>
+        <v>3.694739818572998</v>
       </c>
       <c r="H4" t="n">
-        <v>16.63409805297852</v>
+        <v>9.312806129455566</v>
       </c>
       <c r="I4" t="n">
-        <v>38.32733154296875</v>
+        <v>6.338538646697998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_22</t>
+          <t>model_5_8_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8434010759823647</v>
+        <v>0.8978083042549787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2595246031090591</v>
+        <v>0.9544672667661585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6514259475087434</v>
+        <v>0.9099692257557542</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4659703416009258</v>
+        <v>0.9297447161418053</v>
       </c>
       <c r="F5" t="n">
-        <v>18.88587760925293</v>
+        <v>12.32434940338135</v>
       </c>
       <c r="G5" t="n">
-        <v>73.45460510253906</v>
+        <v>3.527128934860229</v>
       </c>
       <c r="H5" t="n">
-        <v>38.61736679077148</v>
+        <v>9.91615104675293</v>
       </c>
       <c r="I5" t="n">
-        <v>57.06055450439453</v>
+        <v>6.533725738525391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_21</t>
+          <t>model_5_8_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8446004903274865</v>
+        <v>0.8987252414245277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2630496959691482</v>
+        <v>0.9729920933408404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6593199649462875</v>
+        <v>0.6317485666669447</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4715550807769641</v>
+        <v>0.7828532580700862</v>
       </c>
       <c r="F6" t="n">
-        <v>18.7412281036377</v>
+        <v>12.21376609802246</v>
       </c>
       <c r="G6" t="n">
-        <v>73.10491943359375</v>
+        <v>2.092129230499268</v>
       </c>
       <c r="H6" t="n">
-        <v>37.74281692504883</v>
+        <v>40.55987167358398</v>
       </c>
       <c r="I6" t="n">
-        <v>56.46383285522461</v>
+        <v>20.1945972442627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_20</t>
+          <t>model_5_8_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8450644031526441</v>
+        <v>0.9005839834814345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2659841447648239</v>
+        <v>0.9565839294335132</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6605471051588607</v>
+        <v>0.9029088623356492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4735951451100754</v>
+        <v>0.92674304452504</v>
       </c>
       <c r="F7" t="n">
-        <v>18.68527793884277</v>
+        <v>11.98960018157959</v>
       </c>
       <c r="G7" t="n">
-        <v>72.81381225585938</v>
+        <v>3.36316442489624</v>
       </c>
       <c r="H7" t="n">
-        <v>37.60686874389648</v>
+        <v>10.69379234313965</v>
       </c>
       <c r="I7" t="n">
-        <v>56.24585342407227</v>
+        <v>6.812880039215088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_4</t>
+          <t>model_5_8_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8485933578397293</v>
+        <v>0.9031126052713823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3664160984132845</v>
+        <v>0.9585983936476806</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8466994524405564</v>
+        <v>0.8954062552055931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6137874264367028</v>
+        <v>0.9234500515586864</v>
       </c>
       <c r="F8" t="n">
-        <v>18.25968551635742</v>
+        <v>11.68464851379395</v>
       </c>
       <c r="G8" t="n">
-        <v>62.85104751586914</v>
+        <v>3.207116842269897</v>
       </c>
       <c r="H8" t="n">
-        <v>16.98366165161133</v>
+        <v>11.52014350891113</v>
       </c>
       <c r="I8" t="n">
-        <v>41.26644515991211</v>
+        <v>7.119128227233887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_5</t>
+          <t>model_5_8_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8493426823475708</v>
+        <v>0.9040680877393859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3720736703769706</v>
+        <v>0.9791766050682571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.839541901827456</v>
+        <v>0.683762962457564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6130763832956122</v>
+        <v>0.8145695330877826</v>
       </c>
       <c r="F9" t="n">
-        <v>18.16931533813477</v>
+        <v>11.56941699981689</v>
       </c>
       <c r="G9" t="n">
-        <v>62.28982162475586</v>
+        <v>1.613054871559143</v>
       </c>
       <c r="H9" t="n">
-        <v>17.7766227722168</v>
+        <v>34.83091354370117</v>
       </c>
       <c r="I9" t="n">
-        <v>41.3424186706543</v>
+        <v>17.2449893951416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_19</t>
+          <t>model_5_8_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8506734717256886</v>
+        <v>0.9053864795289926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2699702862589597</v>
+        <v>0.9605175994879411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7019974571225804</v>
+        <v>0.8872433506113094</v>
       </c>
       <c r="E10" t="n">
-        <v>0.495779662300499</v>
+        <v>0.9197469057462648</v>
       </c>
       <c r="F10" t="n">
-        <v>18.00882339477539</v>
+        <v>11.41041851043701</v>
       </c>
       <c r="G10" t="n">
-        <v>72.41840362548828</v>
+        <v>3.058448076248169</v>
       </c>
       <c r="H10" t="n">
-        <v>33.01471710205078</v>
+        <v>12.41921997070312</v>
       </c>
       <c r="I10" t="n">
-        <v>53.87545776367188</v>
+        <v>7.463520050048828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_18</t>
+          <t>model_5_8_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8518313314170224</v>
+        <v>0.9073790175874564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2730342177699168</v>
+        <v>0.9623644737074928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7108892597112245</v>
+        <v>0.8780486604324617</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5016232152482978</v>
+        <v>0.9154368706871736</v>
       </c>
       <c r="F11" t="n">
-        <v>17.86918449401855</v>
+        <v>11.17011833190918</v>
       </c>
       <c r="G11" t="n">
-        <v>72.11445617675781</v>
+        <v>2.915382623672485</v>
       </c>
       <c r="H11" t="n">
-        <v>32.02962493896484</v>
+        <v>13.43194007873535</v>
       </c>
       <c r="I11" t="n">
-        <v>53.25107574462891</v>
+        <v>7.864352226257324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_17</t>
+          <t>model_5_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8539763761733058</v>
+        <v>0.9082224899217954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2798874651254277</v>
+        <v>0.982317360593764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7258707062367402</v>
+        <v>0.7296717229491769</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5123023009720593</v>
+        <v>0.8415407857239058</v>
       </c>
       <c r="F12" t="n">
-        <v>17.61049270629883</v>
+        <v>11.06839466094971</v>
       </c>
       <c r="G12" t="n">
-        <v>71.43461608886719</v>
+        <v>1.369760632514954</v>
       </c>
       <c r="H12" t="n">
-        <v>30.36988067626953</v>
+        <v>29.77444076538086</v>
       </c>
       <c r="I12" t="n">
-        <v>52.11002731323242</v>
+        <v>14.73667049407959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_16</t>
+          <t>model_5_8_6</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8547736839077567</v>
+        <v>0.9090332519218076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2815080760691927</v>
+        <v>0.9641772048532623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7344231741384413</v>
+        <v>0.8672897212885083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5172719351822435</v>
+        <v>0.9102400929375181</v>
       </c>
       <c r="F13" t="n">
-        <v>17.51433753967285</v>
+        <v>10.97061634063721</v>
       </c>
       <c r="G13" t="n">
-        <v>71.27386474609375</v>
+        <v>2.774962425231934</v>
       </c>
       <c r="H13" t="n">
-        <v>29.4223804473877</v>
+        <v>14.6169490814209</v>
       </c>
       <c r="I13" t="n">
-        <v>51.57902908325195</v>
+        <v>8.347651481628418</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8552965105672614</v>
+        <v>0.9102431070121112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3039416839489955</v>
+        <v>0.9660683693237389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8075252198154704</v>
+        <v>0.8541092842250244</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5639668828201283</v>
+        <v>0.9037281152954013</v>
       </c>
       <c r="F14" t="n">
-        <v>17.45128440856934</v>
+        <v>10.82470798492432</v>
       </c>
       <c r="G14" t="n">
-        <v>69.0484619140625</v>
+        <v>2.628465890884399</v>
       </c>
       <c r="H14" t="n">
-        <v>21.32364654541016</v>
+        <v>16.06866455078125</v>
       </c>
       <c r="I14" t="n">
-        <v>46.5897216796875</v>
+        <v>8.953264236450195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_2</t>
+          <t>model_5_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8575537707683284</v>
+        <v>0.9105238864163776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5493813757498861</v>
+        <v>0.9814636180314535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8940149954038172</v>
+        <v>0.7658985429762704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7268036360947603</v>
+        <v>0.8613545788436168</v>
       </c>
       <c r="F15" t="n">
-        <v>17.17905807495117</v>
+        <v>10.79084587097168</v>
       </c>
       <c r="G15" t="n">
-        <v>44.70102691650391</v>
+        <v>1.43589448928833</v>
       </c>
       <c r="H15" t="n">
-        <v>11.74172973632812</v>
+        <v>25.78435516357422</v>
       </c>
       <c r="I15" t="n">
-        <v>29.19076919555664</v>
+        <v>12.89399147033691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_6</t>
+          <t>model_5_8_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8583365696305034</v>
+        <v>0.9108682688526919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2288969309153321</v>
+        <v>0.9684287591838262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9124997982250884</v>
+        <v>0.8371314862677495</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5783017798155619</v>
+        <v>0.8953067225783448</v>
       </c>
       <c r="F16" t="n">
-        <v>17.08465194702148</v>
+        <v>10.74931335449219</v>
       </c>
       <c r="G16" t="n">
-        <v>76.49283599853516</v>
+        <v>2.445621490478516</v>
       </c>
       <c r="H16" t="n">
-        <v>9.693859100341797</v>
+        <v>17.93862915039062</v>
       </c>
       <c r="I16" t="n">
-        <v>45.05804824829102</v>
+        <v>9.736452102661133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_15</t>
+          <t>model_5_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8583582153030114</v>
+        <v>0.9110401557753863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.283967813030704</v>
+        <v>0.9722990852738294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7709452359210224</v>
+        <v>0.8156567412523449</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5363014241596754</v>
+        <v>0.885045156688504</v>
       </c>
       <c r="F17" t="n">
-        <v>17.0820426940918</v>
+        <v>10.72858333587646</v>
       </c>
       <c r="G17" t="n">
-        <v>71.02986907958984</v>
+        <v>2.145812034606934</v>
       </c>
       <c r="H17" t="n">
-        <v>25.37622261047363</v>
+        <v>20.30389785766602</v>
       </c>
       <c r="I17" t="n">
-        <v>49.54574584960938</v>
+        <v>10.69077396392822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_14</t>
+          <t>model_5_8_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8588037233153337</v>
+        <v>0.9112225335276132</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2853318574186774</v>
+        <v>0.9773703843668888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7733340595565675</v>
+        <v>0.7931333147313844</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5381364295700395</v>
+        <v>0.8747283176566234</v>
       </c>
       <c r="F18" t="n">
-        <v>17.0283145904541</v>
+        <v>10.70658874511719</v>
       </c>
       <c r="G18" t="n">
-        <v>70.89454650878906</v>
+        <v>1.752971172332764</v>
       </c>
       <c r="H18" t="n">
-        <v>25.111572265625</v>
+        <v>22.78466796875</v>
       </c>
       <c r="I18" t="n">
-        <v>49.34968185424805</v>
+        <v>11.65023708343506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_13</t>
+          <t>model_5_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8590907508541215</v>
+        <v>0.9145038922157321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286620993596729</v>
+        <v>0.944256954084669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7755649584240303</v>
+        <v>0.5829231527024401</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5398594386016471</v>
+        <v>0.7429701531053137</v>
       </c>
       <c r="F19" t="n">
-        <v>16.99369621276855</v>
+        <v>10.31085681915283</v>
       </c>
       <c r="G19" t="n">
-        <v>70.76666259765625</v>
+        <v>4.318056106567383</v>
       </c>
       <c r="H19" t="n">
-        <v>24.86441802978516</v>
+        <v>45.93759536743164</v>
       </c>
       <c r="I19" t="n">
-        <v>49.16557693481445</v>
+        <v>23.90371513366699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_8</t>
+          <t>model_5_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8602846885449356</v>
+        <v>0.915305266624014</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3096566043386658</v>
+        <v>0.9427551696152727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8121188067199344</v>
+        <v>0.5826494018350887</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5690171972129376</v>
+        <v>0.7421554625215782</v>
       </c>
       <c r="F20" t="n">
-        <v>16.84970664978027</v>
+        <v>10.21420955657959</v>
       </c>
       <c r="G20" t="n">
-        <v>68.48153686523438</v>
+        <v>4.434390068054199</v>
       </c>
       <c r="H20" t="n">
-        <v>20.81473731994629</v>
+        <v>45.96774291992188</v>
       </c>
       <c r="I20" t="n">
-        <v>46.05009460449219</v>
+        <v>23.97948455810547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_10</t>
+          <t>model_5_8_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8606855366327602</v>
+        <v>0.9156254064032846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2966323686764449</v>
+        <v>0.9276878980387057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7968289225051832</v>
+        <v>0.5567598088105079</v>
       </c>
       <c r="E21" t="n">
-        <v>0.555154861405001</v>
+        <v>0.7210821504402674</v>
       </c>
       <c r="F21" t="n">
-        <v>16.80136680603027</v>
+        <v>10.1756010055542</v>
       </c>
       <c r="G21" t="n">
-        <v>69.77354431152344</v>
+        <v>5.601554870605469</v>
       </c>
       <c r="H21" t="n">
-        <v>22.50865364074707</v>
+        <v>48.81926727294922</v>
       </c>
       <c r="I21" t="n">
-        <v>47.53127670288086</v>
+        <v>25.93929672241211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_12</t>
+          <t>model_5_8_19</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8610155839142477</v>
+        <v>0.9158098070379875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2953079194835088</v>
+        <v>0.9408513008341072</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7946105200139886</v>
+        <v>0.5806446197783612</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5534221599190297</v>
+        <v>0.7401984739954457</v>
       </c>
       <c r="F22" t="n">
-        <v>16.76156234741211</v>
+        <v>10.15336132049561</v>
       </c>
       <c r="G22" t="n">
-        <v>69.90493011474609</v>
+        <v>4.581870079040527</v>
       </c>
       <c r="H22" t="n">
-        <v>22.75442314147949</v>
+        <v>46.18855285644531</v>
       </c>
       <c r="I22" t="n">
-        <v>47.71641540527344</v>
+        <v>24.16148376464844</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_11</t>
+          <t>model_5_8_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8612296344880026</v>
+        <v>0.9158937794997087</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2950470384681473</v>
+        <v>0.9306599599162891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7966471177943362</v>
+        <v>0.5625158771760923</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5542870116914123</v>
+        <v>0.7256007298150994</v>
       </c>
       <c r="F23" t="n">
-        <v>16.73574638366699</v>
+        <v>10.143235206604</v>
       </c>
       <c r="G23" t="n">
-        <v>69.93080902099609</v>
+        <v>5.371328353881836</v>
       </c>
       <c r="H23" t="n">
-        <v>22.5287971496582</v>
+        <v>48.18528747558594</v>
       </c>
       <c r="I23" t="n">
-        <v>47.62400054931641</v>
+        <v>25.51906967163086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_9</t>
+          <t>model_5_8_20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8647997593484189</v>
+        <v>0.9160162754672819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3173457041665468</v>
+        <v>0.9386368985435013</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8131657883427562</v>
+        <v>0.5768530631085405</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5733073425942254</v>
+        <v>0.7371087878189226</v>
       </c>
       <c r="F24" t="n">
-        <v>16.30518913269043</v>
+        <v>10.12846183776855</v>
       </c>
       <c r="G24" t="n">
-        <v>67.71879577636719</v>
+        <v>4.753406047821045</v>
       </c>
       <c r="H24" t="n">
-        <v>20.69874572753906</v>
+        <v>46.60616302490234</v>
       </c>
       <c r="I24" t="n">
-        <v>45.59170150756836</v>
+        <v>24.44882392883301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_1</t>
+          <t>model_5_8_22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8698154055350423</v>
+        <v>0.9160696751924257</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6883579962746735</v>
+        <v>0.9335008015731279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.948428257776205</v>
+        <v>0.5678836564803076</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8216619533457213</v>
+        <v>0.7298450856225409</v>
       </c>
       <c r="F25" t="n">
-        <v>15.7003002166748</v>
+        <v>10.12202262878418</v>
       </c>
       <c r="G25" t="n">
-        <v>30.9146556854248</v>
+        <v>5.151266098022461</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713463306427002</v>
+        <v>47.59407043457031</v>
       </c>
       <c r="I25" t="n">
-        <v>19.05525016784668</v>
+        <v>25.12434387207031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_0</t>
+          <t>model_5_8_21</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.871295255765705</v>
+        <v>0.9160849557893478</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7768788303279792</v>
+        <v>0.9361637767320377</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9961174416593603</v>
+        <v>0.572486603059716</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8884395267229344</v>
+        <v>0.7335846138571424</v>
       </c>
       <c r="F26" t="n">
-        <v>15.52183055877686</v>
+        <v>10.12017917633057</v>
       </c>
       <c r="G26" t="n">
-        <v>22.13345146179199</v>
+        <v>4.944982528686523</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4301358461380005</v>
+        <v>47.08709335327148</v>
       </c>
       <c r="I26" t="n">
-        <v>11.92012882232666</v>
+        <v>24.77657127380371</v>
       </c>
     </row>
   </sheetData>
